--- a/utils/other_tools/allure_data/自动化异常测试用例.xlsx
+++ b/utils/other_tools/allure_data/自动化异常测试用例.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Study\pytest-auto-api2\utils\otherUtils\allureDate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\pytest-api-auto\utils\other_tools\allure_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CBA06F-39C1-4D53-A6A8-DEB272ED1A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDD6DF0-32F6-43F3-9F1B-79713BCF89E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="840" windowWidth="27420" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="异常用例" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>allureUid</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -92,12 +92,16 @@
     <t>响应结果</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>24235weq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +113,7 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -136,13 +141,6 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -489,28 +487,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D30E69-722C-4FC7-8150-9A3FA348B198}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="5" customWidth="1"/>
     <col min="2" max="2" width="20" style="5" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" style="5" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="5"/>
-    <col min="6" max="6" width="24.77734375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="23.44140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="22.5546875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="5"/>
-    <col min="12" max="12" width="23.21875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="28.5" style="5" customWidth="1"/>
+    <col min="4" max="5" width="8.875" style="5"/>
+    <col min="6" max="6" width="24.75" style="5" customWidth="1"/>
+    <col min="7" max="7" width="29.375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="22.5" style="5" customWidth="1"/>
+    <col min="11" max="11" width="15.125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="23.25" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -546,6 +544,82 @@
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>111</v>
+      </c>
+      <c r="B2" s="5">
+        <v>222</v>
+      </c>
+      <c r="C2" s="5">
+        <v>4444</v>
+      </c>
+      <c r="D2" s="5">
+        <v>55</v>
+      </c>
+      <c r="E2" s="5">
+        <v>66</v>
+      </c>
+      <c r="F2" s="5">
+        <v>116</v>
+      </c>
+      <c r="G2" s="5">
+        <v>213</v>
+      </c>
+      <c r="H2" s="5">
+        <v>12312</v>
+      </c>
+      <c r="I2" s="5">
+        <v>12312</v>
+      </c>
+      <c r="J2" s="5">
+        <v>41241</v>
+      </c>
+      <c r="K2" s="5">
+        <v>312</v>
+      </c>
+      <c r="L2" s="5">
+        <v>643242352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>3123</v>
+      </c>
+      <c r="B3" s="5">
+        <v>52341</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3333</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2312</v>
+      </c>
+      <c r="E3" s="5">
+        <v>123</v>
+      </c>
+      <c r="F3" s="5">
+        <v>123123</v>
+      </c>
+      <c r="G3" s="5">
+        <v>123123</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1512</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2123123</v>
+      </c>
+      <c r="J3" s="5">
+        <v>312123</v>
+      </c>
+      <c r="K3" s="5">
+        <v>12312</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/utils/other_tools/allure_data/自动化异常测试用例.xlsx
+++ b/utils/other_tools/allure_data/自动化异常测试用例.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\pytest-api-auto\utils\other_tools\allure_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pytest-api-auto\utils\other_tools\allure_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDD6DF0-32F6-43F3-9F1B-79713BCF89E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2038F53D-C9AA-4F57-BA72-9D01F5C377B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="840" windowWidth="27420" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1935" yWindow="2400" windowWidth="21615" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="异常用例" sheetId="2" r:id="rId1"/>
@@ -25,83 +25,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>allureUid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>用例名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>请求</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="9"/>
+        <color theme="0"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t>URL</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>请求方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>请求类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>请求头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>请求数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>依赖数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>预期数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>sql</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>响应耗时</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>响应结果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>24235weq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,12 +101,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -139,12 +110,6 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -190,18 +155,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -487,25 +449,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D30E69-722C-4FC7-8150-9A3FA348B198}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20" style="5" customWidth="1"/>
-    <col min="3" max="3" width="28.5" style="5" customWidth="1"/>
-    <col min="4" max="5" width="8.875" style="5"/>
-    <col min="6" max="6" width="24.75" style="5" customWidth="1"/>
-    <col min="7" max="7" width="29.375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="22.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="15.125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="23.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20" style="4" customWidth="1"/>
+    <col min="3" max="3" width="28.5" style="4" customWidth="1"/>
+    <col min="4" max="5" width="8.875" style="4"/>
+    <col min="6" max="6" width="24.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="29.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="22.5" style="4" customWidth="1"/>
+    <col min="11" max="11" width="15.125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="23.25" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -515,7 +477,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -544,82 +506,6 @@
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>111</v>
-      </c>
-      <c r="B2" s="5">
-        <v>222</v>
-      </c>
-      <c r="C2" s="5">
-        <v>4444</v>
-      </c>
-      <c r="D2" s="5">
-        <v>55</v>
-      </c>
-      <c r="E2" s="5">
-        <v>66</v>
-      </c>
-      <c r="F2" s="5">
-        <v>116</v>
-      </c>
-      <c r="G2" s="5">
-        <v>213</v>
-      </c>
-      <c r="H2" s="5">
-        <v>12312</v>
-      </c>
-      <c r="I2" s="5">
-        <v>12312</v>
-      </c>
-      <c r="J2" s="5">
-        <v>41241</v>
-      </c>
-      <c r="K2" s="5">
-        <v>312</v>
-      </c>
-      <c r="L2" s="5">
-        <v>643242352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>3123</v>
-      </c>
-      <c r="B3" s="5">
-        <v>52341</v>
-      </c>
-      <c r="C3" s="5">
-        <v>3333</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2312</v>
-      </c>
-      <c r="E3" s="5">
-        <v>123</v>
-      </c>
-      <c r="F3" s="5">
-        <v>123123</v>
-      </c>
-      <c r="G3" s="5">
-        <v>123123</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1512</v>
-      </c>
-      <c r="I3" s="5">
-        <v>2123123</v>
-      </c>
-      <c r="J3" s="5">
-        <v>312123</v>
-      </c>
-      <c r="K3" s="5">
-        <v>12312</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
